--- a/header_footer.xlsx
+++ b/header_footer.xlsx
@@ -21,13 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>----------------header-----------------</t>
-  </si>
-  <si>
     <t>----------------end header-----------------</t>
-  </si>
-  <si>
-    <t>----------------footer-----------------</t>
   </si>
   <si>
     <t>----------------end footer-----------------</t>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>: 25-27-29 Tong Van Tran, Ward 5, District 11, HCMC</t>
+  </si>
+  <si>
+    <t>----------------begin header-----------------</t>
+  </si>
+  <si>
+    <t>----------------begin footer-----------------</t>
   </si>
 </sst>
 </file>
@@ -534,34 +534,34 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -573,42 +573,42 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/header_footer.xlsx
+++ b/header_footer.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>----------------end header-----------------</t>
   </si>
@@ -83,12 +83,15 @@
   <si>
     <t>----------------begin footer-----------------</t>
   </si>
+  <si>
+    <t>Week from 14-03 to 20-03</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +153,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -199,6 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +332,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,65 +559,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
